--- a/azure/azure_notes.xlsx
+++ b/azure/azure_notes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Item</t>
   </si>
@@ -39,9 +39,6 @@
     <t>SaaS</t>
   </si>
   <si>
-    <t xml:space="preserve">Azure App Service </t>
-  </si>
-  <si>
     <t>Azure VM</t>
   </si>
   <si>
@@ -64,6 +61,36 @@
   </si>
   <si>
     <t>Azure Synapse analytics</t>
+  </si>
+  <si>
+    <t>Azure Storage accounts</t>
+  </si>
+  <si>
+    <t>Azure SQL Synapse Analytics</t>
+  </si>
+  <si>
+    <t>cosmos DB</t>
+  </si>
+  <si>
+    <t>IoT Central</t>
+  </si>
+  <si>
+    <t>Office 365</t>
+  </si>
+  <si>
+    <t>Intune/EMS</t>
+  </si>
+  <si>
+    <t>Dynamics 365</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Azure App Service</t>
+  </si>
+  <si>
+    <t>Azure Web App</t>
   </si>
 </sst>
 </file>
@@ -401,14 +428,15 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="1"/>
-    <col min="2" max="3" width="13" style="2"/>
-    <col min="4" max="4" width="19.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="13" style="2"/>
   </cols>
   <sheetData>
@@ -427,82 +455,100 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
